--- a/Archive/egrid update/plant-list.xlsx
+++ b/Archive/egrid update/plant-list.xlsx
@@ -938,7 +938,24 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1217,7 +1234,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="A80:F80"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,371 +1260,371 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>228</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6013</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6079</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6023</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="B3">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6075</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>6079</v>
+        <v>6073</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>260</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6053</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6073</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>271</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6013</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="A6">
         <v>10</v>
+      </c>
+      <c r="B6">
+        <v>329</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6071</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6075</v>
+        <v>6037</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>6073</v>
+        <v>6025</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>6073</v>
+        <v>6037</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>315</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>404</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>6037</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>6071</v>
+        <v>6037</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>330</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>6013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
         <v>6037</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>331</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6071</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>7266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>6099</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>335</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6059</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>7307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>6089</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>341</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6037</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>7315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>6099</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>345</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6111</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>7449</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>6077</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>350</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6111</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>7527</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>6067</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>356</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6037</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>7551</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>6067</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>358</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6071</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>7552</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>6067</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>377</v>
+        <v>7987</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1619,895 +1636,895 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>389</v>
+        <v>10349</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>6025</v>
+        <v>6101</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>399</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6037</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
+      <c r="A22">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>54238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>6077</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>55112</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23">
-        <v>6037</v>
+        <v>6101</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>404</v>
+        <v>55499</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>6037</v>
+        <v>6095</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>408</v>
+        <v>55510</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>6037</v>
+        <v>6073</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>420</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6037</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
+      <c r="A26">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>55513</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>6073</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>422</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>6037</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>31</v>
+      <c r="A27">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>55698</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>6031</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B28">
-        <v>6013</v>
+        <v>55970</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>6037</v>
+        <v>6067</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B29">
-        <v>7266</v>
+        <v>56046</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>6099</v>
+        <v>6037</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B30">
-        <v>7307</v>
+        <v>56078</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>6089</v>
+        <v>6099</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B31">
-        <v>7315</v>
+        <v>56298</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>6099</v>
+        <v>6061</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B32">
-        <v>7449</v>
+        <v>56569</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32">
-        <v>6077</v>
+        <v>6025</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B33">
-        <v>7527</v>
+        <v>57001</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>6067</v>
+        <v>6073</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B34">
-        <v>7551</v>
+        <v>57073</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>6067</v>
+        <v>6071</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="B35">
-        <v>7552</v>
+        <v>57074</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>6067</v>
+        <v>6071</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>7693</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>6059</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>40</v>
+      <c r="A36">
+        <v>110</v>
+      </c>
+      <c r="B36">
+        <v>57075</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>6071</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B37">
-        <v>7987</v>
+        <v>57564</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37">
-        <v>6037</v>
+        <v>6019</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>10034</v>
+        <v>228</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1">
-        <v>6085</v>
+        <v>6013</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1">
-        <v>10156</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>6019</v>
+        <v>6023</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B40" s="1">
-        <v>10169</v>
+        <v>260</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>6037</v>
+        <v>6053</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>10294</v>
+        <v>271</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>6053</v>
+        <v>6013</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>10349</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>6101</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>46</v>
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1">
+        <v>315</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6037</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1">
-        <v>10350</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>6101</v>
+        <v>6037</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>10405</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2">
-        <v>6019</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>48</v>
+      <c r="A44" s="1">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>331</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6071</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1">
-        <v>10812</v>
+        <v>335</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>6073</v>
+        <v>6059</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1">
-        <v>50131</v>
+        <v>341</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="1">
-        <v>6019</v>
+        <v>6037</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1">
-        <v>50864</v>
+        <v>345</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>6053</v>
+        <v>6111</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
-        <v>50865</v>
+        <v>350</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>6053</v>
+        <v>6111</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>54238</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>6077</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
+      <c r="A49" s="1">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>356</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6037</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1">
-        <v>54749</v>
+        <v>358</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1">
-        <v>6073</v>
+        <v>6071</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>55112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>6101</v>
-      </c>
-      <c r="E51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
+      <c r="A51" s="1">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1">
+        <v>399</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6037</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B52" s="1">
-        <v>55151</v>
+        <v>420</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>6029</v>
+        <v>6037</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>55182</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="1">
-        <v>6029</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>57</v>
+      <c r="A53" s="2">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>422</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>6037</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
-        <v>55217</v>
+        <v>7693</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1">
-        <v>6013</v>
+        <v>6059</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
-        <v>55295</v>
+        <v>10034</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>6065</v>
+        <v>6085</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1">
-        <v>55333</v>
+        <v>10156</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>6013</v>
+        <v>6019</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1">
-        <v>55345</v>
+        <v>10169</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>6073</v>
+        <v>6037</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1">
-        <v>55393</v>
+        <v>10294</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1">
-        <v>6085</v>
+        <v>6053</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>55499</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>6095</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>63</v>
+      <c r="A59" s="1">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1">
+        <v>10350</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6101</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>55508</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="A60" s="2">
+        <v>43</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10405</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
         <v>6019</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>64</v>
+      <c r="E60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>55510</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
+      <c r="A61" s="1">
+        <v>44</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10812</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
         <v>6073</v>
       </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" t="s">
-        <v>65</v>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1">
-        <v>55512</v>
+        <v>50131</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="1">
-        <v>6073</v>
+        <v>6019</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>55513</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>6073</v>
-      </c>
-      <c r="E63" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="s">
-        <v>67</v>
+      <c r="A63" s="1">
+        <v>46</v>
+      </c>
+      <c r="B63" s="1">
+        <v>50864</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6053</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1">
-        <v>55518</v>
+        <v>50865</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="1">
-        <v>6071</v>
+        <v>6053</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1">
-        <v>55538</v>
+        <v>54749</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
@@ -2519,255 +2536,255 @@
         <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1">
-        <v>55540</v>
+        <v>55151</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>6073</v>
+        <v>6029</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1">
-        <v>55541</v>
+        <v>55182</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>6065</v>
+        <v>6029</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1">
-        <v>55542</v>
+        <v>55217</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="1">
-        <v>6073</v>
+        <v>6013</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1">
-        <v>55625</v>
+        <v>55295</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>6095</v>
+        <v>6065</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1">
-        <v>55626</v>
+        <v>55333</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="1">
-        <v>6095</v>
+        <v>6013</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1">
-        <v>55627</v>
+        <v>55345</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="1">
-        <v>6095</v>
+        <v>6073</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1">
-        <v>55656</v>
+        <v>55393</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>6029</v>
+        <v>6085</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>55698</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>6031</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>77</v>
+      <c r="A73" s="1">
+        <v>59</v>
+      </c>
+      <c r="B73" s="1">
+        <v>55508</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6019</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1">
-        <v>55748</v>
+        <v>55512</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="1">
-        <v>6085</v>
+        <v>6073</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1">
-        <v>55807</v>
+        <v>55518</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>6031</v>
+        <v>6071</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1">
-        <v>55810</v>
+        <v>55538</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="1">
-        <v>6085</v>
+        <v>6073</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B77" s="1">
-        <v>55847</v>
+        <v>55540</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>6101</v>
+        <v>6073</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B78" s="1">
-        <v>55853</v>
+        <v>55541</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
@@ -2779,155 +2796,155 @@
         <v>5</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1">
-        <v>55855</v>
+        <v>55542</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1">
+        <v>6073</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>68</v>
+      </c>
+      <c r="B80" s="1">
+        <v>55625</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
         <v>6095</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2">
-        <v>55875</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="2">
-        <v>6019</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>84</v>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1">
-        <v>55933</v>
+        <v>55626</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>6077</v>
+        <v>6095</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1">
-        <v>55951</v>
+        <v>55627</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>6071</v>
+        <v>6095</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1">
-        <v>55963</v>
+        <v>55656</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <v>6013</v>
+        <v>6029</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>55970</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>6067</v>
-      </c>
-      <c r="E84" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" t="s">
-        <v>88</v>
+      <c r="A84" s="1">
+        <v>73</v>
+      </c>
+      <c r="B84" s="1">
+        <v>55748</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6085</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1">
-        <v>55985</v>
+        <v>55807</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1">
-        <v>6073</v>
+        <v>6031</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1">
-        <v>56026</v>
+        <v>55810</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -2939,627 +2956,627 @@
         <v>5</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1">
-        <v>56041</v>
+        <v>55847</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>6037</v>
+        <v>6101</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>56046</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>6037</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>92</v>
+      <c r="A88" s="1">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1">
+        <v>55853</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6065</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>56078</v>
-      </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>6099</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>93</v>
+      <c r="A89" s="1">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1">
+        <v>55855</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6095</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1">
-        <v>56135</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="1">
-        <v>6077</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>94</v>
+      <c r="A90" s="2">
+        <v>79</v>
+      </c>
+      <c r="B90" s="2">
+        <v>55875</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2">
+        <v>6019</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1">
-        <v>56143</v>
+        <v>55933</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="1">
-        <v>6065</v>
+        <v>6077</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1">
-        <v>56232</v>
+        <v>55951</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>6073</v>
+        <v>6071</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1">
-        <v>56239</v>
+        <v>55963</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <v>6019</v>
+        <v>6013</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>56298</v>
-      </c>
-      <c r="C94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94">
-        <v>6061</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>98</v>
+      <c r="A94" s="1">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1">
+        <v>55985</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>6073</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
+        <v>85</v>
+      </c>
+      <c r="B95" s="1">
+        <v>56026</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6085</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>86</v>
+      </c>
+      <c r="B96" s="1">
+        <v>56041</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>6037</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>89</v>
+      </c>
+      <c r="B97" s="1">
+        <v>56135</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>6077</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" s="1">
-        <v>56467</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>6001</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
-      <c r="B96" s="2">
-        <v>56471</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="2">
-        <v>6111</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="B97" s="2">
-        <v>56472</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="2">
-        <v>6071</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B98" s="1">
-        <v>56473</v>
+        <v>56143</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="1">
-        <v>6071</v>
+        <v>6065</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1">
-        <v>56474</v>
+        <v>56232</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <v>6059</v>
+        <v>6073</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
-      <c r="B100" s="2">
-        <v>56475</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="2">
-        <v>6037</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>104</v>
+      <c r="A100" s="1">
+        <v>92</v>
+      </c>
+      <c r="B100" s="1">
+        <v>56239</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6019</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
+        <v>94</v>
+      </c>
+      <c r="B101" s="1">
+        <v>56467</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>6001</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>95</v>
+      </c>
+      <c r="B102" s="2">
+        <v>56471</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>6111</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <v>56476</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="1">
-        <v>6013</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>96</v>
+      </c>
+      <c r="B103" s="2">
+        <v>56472</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2">
+        <v>6071</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B102" s="1">
-        <v>56532</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="1">
-        <v>6011</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>56569</v>
-      </c>
-      <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>6025</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B104" s="1">
-        <v>56639</v>
+        <v>56473</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="1">
-        <v>6019</v>
+        <v>6071</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
+        <v>98</v>
+      </c>
+      <c r="B105" s="1">
+        <v>56474</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6059</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>99</v>
+      </c>
+      <c r="B106" s="2">
+        <v>56475</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>6037</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
-        <v>56803</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="1">
-        <v>6019</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>100</v>
+      </c>
+      <c r="B107" s="1">
+        <v>56476</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6013</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B106" s="1">
-        <v>56914</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="1">
-        <v>6073</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>57001</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107">
-        <v>6073</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
+        <v>101</v>
+      </c>
+      <c r="B108" s="1">
+        <v>56532</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6011</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>103</v>
+      </c>
+      <c r="B109" s="1">
+        <v>56639</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6019</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>104</v>
+      </c>
+      <c r="B110" s="1">
+        <v>56803</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>6019</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>105</v>
+      </c>
+      <c r="B111" s="1">
+        <v>56914</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>6073</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B112" s="1">
         <v>57027</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
         <v>6059</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>57073</v>
-      </c>
-      <c r="C109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>6071</v>
-      </c>
-      <c r="E109" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>57074</v>
-      </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110">
-        <v>6071</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>57075</v>
-      </c>
-      <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111">
-        <v>6071</v>
-      </c>
-      <c r="E111" t="s">
-        <v>5</v>
-      </c>
-      <c r="F111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="2">
-        <v>57267</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="2">
-        <v>6013</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>57267</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="2">
+        <v>6013</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B114" s="2">
         <v>57482</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="C114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="2">
         <v>6065</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1">
-        <v>57483</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="1">
-        <v>6001</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>57515</v>
+        <v>57483</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>6037</v>
+        <v>6001</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>57515</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>6037</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B117" s="1">
         <v>57555</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
         <v>6073</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" s="1" t="s">
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>57564</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>6019</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3605,7 +3622,7 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F119">
-      <sortCondition ref="A1"/>
+      <sortCondition sortBy="cellColor" ref="A1" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
